--- a/01-CodigoFuente/main/Spooler/main/main/bin/Debug/net8.0/spread_Transmision_EDOCs_18975_may-01-2024may-31-2024.xlsx
+++ b/01-CodigoFuente/main/Spooler/main/main/bin/Debug/net8.0/spread_Transmision_EDOCs_18975_may-01-2024may-31-2024.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView activeTab="1"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Exportación" sheetId="1" r:id="R42641094c22f4100"/>
-    <x:sheet name="Importación" sheetId="2" r:id="Re3d2ac5543714fa4"/>
+    <x:sheet name="Exportación" sheetId="1" r:id="R5a415b183447491c"/>
+    <x:sheet name="Importación" sheetId="2" r:id="Rfef700b9e5be4883"/>
   </x:sheets>
 </x:workbook>
 </file>
